--- a/data/raw/Tweets_Scrapped_US_Elections_2024.xlsx
+++ b/data/raw/Tweets_Scrapped_US_Elections_2024.xlsx
@@ -5,16 +5,15 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/61bb03f434f6b67c/Documents/NLP/Twitter_Election_Analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\2024-presidential-election-twitter-sentiment-analysis\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5551FBCE-0AA0-4E6D-991E-50B93694145C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A22F5841-2E1A-4913-8F3D-42FCE39F8DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="64680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E4B84AEC-6CF8-4DBE-A4D7-C2A2512F7750}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{E4B84AEC-6CF8-4DBE-A4D7-C2A2512F7750}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -5160,21 +5159,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D06E6D2D-72AD-4293-98E4-D2DFF11A8500}">
   <dimension ref="A1:F992"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A961" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="243.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="243.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.81640625" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5194,7 +5193,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -5214,7 +5213,7 @@
         <v>2836</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -5234,7 +5233,7 @@
         <v>3653</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -5254,7 +5253,7 @@
         <v>4925</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
@@ -5274,7 +5273,7 @@
         <v>6925</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -5294,7 +5293,7 @@
         <v>2416</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -5314,7 +5313,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>24</v>
       </c>
@@ -5334,7 +5333,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -5354,7 +5353,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>28</v>
       </c>
@@ -5374,7 +5373,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>31</v>
       </c>
@@ -5394,7 +5393,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>36</v>
       </c>
@@ -5414,7 +5413,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>6</v>
       </c>
@@ -5434,7 +5433,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>42</v>
       </c>
@@ -5454,7 +5453,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>46</v>
       </c>
@@ -5474,7 +5473,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>49</v>
       </c>
@@ -5494,7 +5493,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>6</v>
       </c>
@@ -5514,7 +5513,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>54</v>
       </c>
@@ -5534,7 +5533,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>58</v>
       </c>
@@ -5554,7 +5553,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>62</v>
       </c>
@@ -5574,7 +5573,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>6</v>
       </c>
@@ -5594,7 +5593,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>68</v>
       </c>
@@ -5614,7 +5613,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>6</v>
       </c>
@@ -5634,7 +5633,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>73</v>
       </c>
@@ -5654,7 +5653,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>77</v>
       </c>
@@ -5674,7 +5673,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>81</v>
       </c>
@@ -5694,7 +5693,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>86</v>
       </c>
@@ -5714,7 +5713,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>89</v>
       </c>
@@ -5734,7 +5733,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>93</v>
       </c>
@@ -5754,7 +5753,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>96</v>
       </c>
@@ -5774,7 +5773,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>99</v>
       </c>
@@ -5794,7 +5793,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>103</v>
       </c>
@@ -5814,7 +5813,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>106</v>
       </c>
@@ -5834,7 +5833,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>110</v>
       </c>
@@ -5854,7 +5853,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>114</v>
       </c>
@@ -5874,7 +5873,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>99</v>
       </c>
@@ -5894,7 +5893,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>93</v>
       </c>
@@ -5914,7 +5913,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>123</v>
       </c>
@@ -5934,7 +5933,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>128</v>
       </c>
@@ -5954,7 +5953,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>131</v>
       </c>
@@ -5974,7 +5973,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>131</v>
       </c>
@@ -5994,7 +5993,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>136</v>
       </c>
@@ -6014,7 +6013,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>139</v>
       </c>
@@ -6034,7 +6033,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>141</v>
       </c>
@@ -6054,7 +6053,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>144</v>
       </c>
@@ -6074,7 +6073,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>146</v>
       </c>
@@ -6094,7 +6093,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>148</v>
       </c>
@@ -6114,7 +6113,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>151</v>
       </c>
@@ -6134,7 +6133,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>153</v>
       </c>
@@ -6154,7 +6153,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>156</v>
       </c>
@@ -6174,7 +6173,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>159</v>
       </c>
@@ -6194,7 +6193,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>28</v>
       </c>
@@ -6214,7 +6213,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>6</v>
       </c>
@@ -6234,7 +6233,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>166</v>
       </c>
@@ -6254,7 +6253,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>31</v>
       </c>
@@ -6274,7 +6273,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>128</v>
       </c>
@@ -6294,7 +6293,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>171</v>
       </c>
@@ -6314,7 +6313,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>173</v>
       </c>
@@ -6334,7 +6333,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
         <v>177</v>
       </c>
@@ -6354,7 +6353,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
         <v>180</v>
       </c>
@@ -6374,7 +6373,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>183</v>
       </c>
@@ -6394,7 +6393,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>186</v>
       </c>
@@ -6414,7 +6413,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>18</v>
       </c>
@@ -6434,7 +6433,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
         <v>190</v>
       </c>
@@ -6454,7 +6453,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>18</v>
       </c>
@@ -6474,7 +6473,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>68</v>
       </c>
@@ -6494,7 +6493,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
         <v>195</v>
       </c>
@@ -6514,7 +6513,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
         <v>198</v>
       </c>
@@ -6534,7 +6533,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
         <v>6</v>
       </c>
@@ -6554,7 +6553,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>201</v>
       </c>
@@ -6574,7 +6573,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
         <v>139</v>
       </c>
@@ -6594,7 +6593,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
         <v>128</v>
       </c>
@@ -6614,7 +6613,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
         <v>207</v>
       </c>
@@ -6634,7 +6633,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
         <v>139</v>
       </c>
@@ -6654,7 +6653,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
         <v>18</v>
       </c>
@@ -6674,7 +6673,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
         <v>212</v>
       </c>
@@ -6694,7 +6693,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
         <v>214</v>
       </c>
@@ -6714,7 +6713,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
         <v>216</v>
       </c>
@@ -6734,7 +6733,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
         <v>68</v>
       </c>
@@ -6754,7 +6753,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
         <v>220</v>
       </c>
@@ -6774,7 +6773,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
         <v>222</v>
       </c>
@@ -6794,7 +6793,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
         <v>224</v>
       </c>
@@ -6814,7 +6813,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
         <v>216</v>
       </c>
@@ -6834,7 +6833,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
         <v>228</v>
       </c>
@@ -6854,7 +6853,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
         <v>232</v>
       </c>
@@ -6874,7 +6873,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
         <v>114</v>
       </c>
@@ -6894,7 +6893,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
         <v>237</v>
       </c>
@@ -6914,7 +6913,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
         <v>240</v>
       </c>
@@ -6934,7 +6933,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
         <v>243</v>
       </c>
@@ -6954,7 +6953,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
         <v>246</v>
       </c>
@@ -6974,7 +6973,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
         <v>249</v>
       </c>
@@ -6994,7 +6993,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
         <v>114</v>
       </c>
@@ -7014,7 +7013,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
         <v>254</v>
       </c>
@@ -7034,7 +7033,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
         <v>86</v>
       </c>
@@ -7054,7 +7053,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
         <v>249</v>
       </c>
@@ -7074,7 +7073,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
         <v>237</v>
       </c>
@@ -7094,7 +7093,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
         <v>6</v>
       </c>
@@ -7114,7 +7113,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
         <v>262</v>
       </c>
@@ -7134,7 +7133,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
         <v>224</v>
       </c>
@@ -7154,7 +7153,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
         <v>266</v>
       </c>
@@ -7174,7 +7173,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
         <v>268</v>
       </c>
@@ -7194,7 +7193,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
         <v>270</v>
       </c>
@@ -7214,7 +7213,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
         <v>273</v>
       </c>
@@ -7234,7 +7233,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
         <v>277</v>
       </c>
@@ -7254,7 +7253,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
         <v>280</v>
       </c>
@@ -7274,7 +7273,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
         <v>283</v>
       </c>
@@ -7294,7 +7293,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
         <v>286</v>
       </c>
@@ -7314,7 +7313,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
         <v>290</v>
       </c>
@@ -7334,7 +7333,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
         <v>292</v>
       </c>
@@ -7354,7 +7353,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
         <v>173</v>
       </c>
@@ -7374,7 +7373,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
         <v>249</v>
       </c>
@@ -7394,7 +7393,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
         <v>300</v>
       </c>
@@ -7414,7 +7413,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" s="2" t="s">
         <v>114</v>
       </c>
@@ -7434,7 +7433,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="s">
         <v>304</v>
       </c>
@@ -7454,7 +7453,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" s="2" t="s">
         <v>307</v>
       </c>
@@ -7474,7 +7473,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" s="2" t="s">
         <v>309</v>
       </c>
@@ -7494,7 +7493,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" s="2" t="s">
         <v>312</v>
       </c>
@@ -7514,7 +7513,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
         <v>315</v>
       </c>
@@ -7534,7 +7533,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
         <v>318</v>
       </c>
@@ -7554,7 +7553,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" s="2" t="s">
         <v>321</v>
       </c>
@@ -7574,7 +7573,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
         <v>28</v>
       </c>
@@ -7594,7 +7593,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
         <v>283</v>
       </c>
@@ -7614,7 +7613,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
         <v>327</v>
       </c>
@@ -7634,7 +7633,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" s="2" t="s">
         <v>329</v>
       </c>
@@ -7654,7 +7653,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
         <v>283</v>
       </c>
@@ -7674,7 +7673,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
         <v>333</v>
       </c>
@@ -7694,7 +7693,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" s="2" t="s">
         <v>336</v>
       </c>
@@ -7714,7 +7713,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" s="2" t="s">
         <v>128</v>
       </c>
@@ -7734,7 +7733,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" s="2" t="s">
         <v>341</v>
       </c>
@@ -7754,7 +7753,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" s="2" t="s">
         <v>343</v>
       </c>
@@ -7774,7 +7773,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" s="2" t="s">
         <v>345</v>
       </c>
@@ -7794,7 +7793,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" s="2" t="s">
         <v>128</v>
       </c>
@@ -7814,7 +7813,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" s="2" t="s">
         <v>349</v>
       </c>
@@ -7834,7 +7833,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" s="2" t="s">
         <v>351</v>
       </c>
@@ -7854,7 +7853,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" s="2" t="s">
         <v>353</v>
       </c>
@@ -7874,7 +7873,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" s="2" t="s">
         <v>355</v>
       </c>
@@ -7894,7 +7893,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" s="2" t="s">
         <v>358</v>
       </c>
@@ -7914,7 +7913,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" s="2" t="s">
         <v>349</v>
       </c>
@@ -7934,7 +7933,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" s="2" t="s">
         <v>362</v>
       </c>
@@ -7954,7 +7953,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" s="2" t="s">
         <v>364</v>
       </c>
@@ -7974,7 +7973,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" s="2" t="s">
         <v>353</v>
       </c>
@@ -7994,7 +7993,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" s="2" t="s">
         <v>367</v>
       </c>
@@ -8014,7 +8013,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" s="2" t="s">
         <v>6</v>
       </c>
@@ -8034,7 +8033,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" s="2" t="s">
         <v>28</v>
       </c>
@@ -8054,7 +8053,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" s="2" t="s">
         <v>371</v>
       </c>
@@ -8074,7 +8073,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" s="2" t="s">
         <v>373</v>
       </c>
@@ -8094,7 +8093,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" s="2" t="s">
         <v>375</v>
       </c>
@@ -8114,7 +8113,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" s="2" t="s">
         <v>36</v>
       </c>
@@ -8134,7 +8133,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" s="2" t="s">
         <v>283</v>
       </c>
@@ -8154,7 +8153,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" s="2" t="s">
         <v>246</v>
       </c>
@@ -8174,7 +8173,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" s="2" t="s">
         <v>386</v>
       </c>
@@ -8194,7 +8193,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" s="2" t="s">
         <v>388</v>
       </c>
@@ -8214,7 +8213,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" s="2" t="s">
         <v>243</v>
       </c>
@@ -8234,7 +8233,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" s="2" t="s">
         <v>392</v>
       </c>
@@ -8254,7 +8253,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" s="2" t="s">
         <v>228</v>
       </c>
@@ -8274,7 +8273,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" s="2" t="s">
         <v>28</v>
       </c>
@@ -8294,7 +8293,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" s="2" t="s">
         <v>6</v>
       </c>
@@ -8314,7 +8313,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" s="2" t="s">
         <v>399</v>
       </c>
@@ -8334,7 +8333,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" s="2" t="s">
         <v>283</v>
       </c>
@@ -8354,7 +8353,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" s="2" t="s">
         <v>166</v>
       </c>
@@ -8374,7 +8373,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" s="2" t="s">
         <v>404</v>
       </c>
@@ -8394,7 +8393,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" s="2" t="s">
         <v>28</v>
       </c>
@@ -8414,7 +8413,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" s="2" t="s">
         <v>283</v>
       </c>
@@ -8434,7 +8433,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" s="2" t="s">
         <v>409</v>
       </c>
@@ -8454,7 +8453,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165" s="2" t="s">
         <v>411</v>
       </c>
@@ -8474,7 +8473,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" s="2" t="s">
         <v>166</v>
       </c>
@@ -8494,7 +8493,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" s="2" t="s">
         <v>414</v>
       </c>
@@ -8514,7 +8513,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" s="2" t="s">
         <v>416</v>
       </c>
@@ -8534,7 +8533,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" s="2" t="s">
         <v>418</v>
       </c>
@@ -8554,7 +8553,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" s="2" t="s">
         <v>249</v>
       </c>
@@ -8574,7 +8573,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171" s="2" t="s">
         <v>418</v>
       </c>
@@ -8594,7 +8593,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172" s="2" t="s">
         <v>93</v>
       </c>
@@ -8614,7 +8613,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173" s="2" t="s">
         <v>28</v>
       </c>
@@ -8634,7 +8633,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174" s="2" t="s">
         <v>426</v>
       </c>
@@ -8654,7 +8653,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175" s="2" t="s">
         <v>6</v>
       </c>
@@ -8674,7 +8673,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176" s="2" t="s">
         <v>429</v>
       </c>
@@ -8694,7 +8693,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177" s="2" t="s">
         <v>432</v>
       </c>
@@ -8714,7 +8713,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178" s="2" t="s">
         <v>290</v>
       </c>
@@ -8734,7 +8733,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179" s="2" t="s">
         <v>243</v>
       </c>
@@ -8754,7 +8753,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180" s="2" t="s">
         <v>307</v>
       </c>
@@ -8774,7 +8773,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181" s="2" t="s">
         <v>439</v>
       </c>
@@ -8794,7 +8793,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182" s="2" t="s">
         <v>36</v>
       </c>
@@ -8814,7 +8813,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183" s="2" t="s">
         <v>93</v>
       </c>
@@ -8834,7 +8833,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184" s="2" t="s">
         <v>6</v>
       </c>
@@ -8854,7 +8853,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185" s="2" t="s">
         <v>58</v>
       </c>
@@ -8874,7 +8873,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186" s="2" t="s">
         <v>445</v>
       </c>
@@ -8894,7 +8893,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A187" s="2" t="s">
         <v>449</v>
       </c>
@@ -8914,7 +8913,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A188" s="2" t="s">
         <v>283</v>
       </c>
@@ -8934,7 +8933,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A189" s="2" t="s">
         <v>453</v>
       </c>
@@ -8954,7 +8953,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A190" s="2" t="s">
         <v>455</v>
       </c>
@@ -8974,7 +8973,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A191" s="2" t="s">
         <v>457</v>
       </c>
@@ -8994,7 +8993,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A192" s="2" t="s">
         <v>459</v>
       </c>
@@ -9014,7 +9013,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193" s="2" t="s">
         <v>461</v>
       </c>
@@ -9034,7 +9033,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A194" s="2" t="s">
         <v>463</v>
       </c>
@@ -9054,7 +9053,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195" s="2" t="s">
         <v>465</v>
       </c>
@@ -9074,7 +9073,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A196" s="2" t="s">
         <v>467</v>
       </c>
@@ -9094,7 +9093,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A197" s="2" t="s">
         <v>470</v>
       </c>
@@ -9114,7 +9113,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A198" s="2" t="s">
         <v>6</v>
       </c>
@@ -9134,7 +9133,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A199" s="2" t="s">
         <v>473</v>
       </c>
@@ -9154,7 +9153,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A200" s="2" t="s">
         <v>475</v>
       </c>
@@ -9174,7 +9173,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A201" s="2" t="s">
         <v>58</v>
       </c>
@@ -9194,7 +9193,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A202" s="2" t="s">
         <v>479</v>
       </c>
@@ -9214,7 +9213,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A203" s="2" t="s">
         <v>481</v>
       </c>
@@ -9234,7 +9233,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A204" s="2" t="s">
         <v>484</v>
       </c>
@@ -9254,7 +9253,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A205" s="2" t="s">
         <v>461</v>
       </c>
@@ -9274,7 +9273,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A206" s="2" t="s">
         <v>487</v>
       </c>
@@ -9294,7 +9293,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A207" s="2" t="s">
         <v>283</v>
       </c>
@@ -9314,7 +9313,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A208" s="2" t="s">
         <v>491</v>
       </c>
@@ -9334,7 +9333,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A209" s="2" t="s">
         <v>493</v>
       </c>
@@ -9354,7 +9353,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A210" s="2" t="s">
         <v>283</v>
       </c>
@@ -9374,7 +9373,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A211" s="2" t="s">
         <v>283</v>
       </c>
@@ -9394,7 +9393,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A212" s="2" t="s">
         <v>497</v>
       </c>
@@ -9414,7 +9413,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A213" s="2" t="s">
         <v>499</v>
       </c>
@@ -9434,7 +9433,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A214" s="2" t="s">
         <v>502</v>
       </c>
@@ -9454,7 +9453,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A215" s="2" t="s">
         <v>504</v>
       </c>
@@ -9474,7 +9473,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A216" s="2" t="s">
         <v>506</v>
       </c>
@@ -9494,7 +9493,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A217" s="2" t="s">
         <v>166</v>
       </c>
@@ -9514,7 +9513,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A218" s="2" t="s">
         <v>511</v>
       </c>
@@ -9534,7 +9533,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A219" s="2" t="s">
         <v>515</v>
       </c>
@@ -9554,7 +9553,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A220" s="2" t="s">
         <v>517</v>
       </c>
@@ -9574,7 +9573,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A221" s="2" t="s">
         <v>28</v>
       </c>
@@ -9594,7 +9593,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A222" s="2" t="s">
         <v>523</v>
       </c>
@@ -9614,7 +9613,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A223" s="2" t="s">
         <v>526</v>
       </c>
@@ -9634,7 +9633,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A224" s="2" t="s">
         <v>531</v>
       </c>
@@ -9654,7 +9653,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A225" s="2" t="s">
         <v>355</v>
       </c>
@@ -9674,7 +9673,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A226" s="2" t="s">
         <v>537</v>
       </c>
@@ -9694,7 +9693,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A227" s="2" t="s">
         <v>539</v>
       </c>
@@ -9714,7 +9713,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A228" s="2" t="s">
         <v>114</v>
       </c>
@@ -9734,7 +9733,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A229" s="2" t="s">
         <v>542</v>
       </c>
@@ -9754,7 +9753,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A230" s="2" t="s">
         <v>6</v>
       </c>
@@ -9774,7 +9773,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A231" s="2" t="s">
         <v>546</v>
       </c>
@@ -9794,7 +9793,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A232" s="2" t="s">
         <v>549</v>
       </c>
@@ -9814,7 +9813,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A233" s="2" t="s">
         <v>551</v>
       </c>
@@ -9834,7 +9833,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A234" s="2" t="s">
         <v>553</v>
       </c>
@@ -9854,7 +9853,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A235" s="2" t="s">
         <v>556</v>
       </c>
@@ -9874,7 +9873,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A236" s="2" t="s">
         <v>559</v>
       </c>
@@ -9894,7 +9893,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A237" s="2" t="s">
         <v>6</v>
       </c>
@@ -9914,7 +9913,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A238" s="2" t="s">
         <v>563</v>
       </c>
@@ -9934,7 +9933,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A239" s="2" t="s">
         <v>566</v>
       </c>
@@ -9954,7 +9953,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A240" s="2" t="s">
         <v>568</v>
       </c>
@@ -9974,7 +9973,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A241" s="2" t="s">
         <v>28</v>
       </c>
@@ -9994,7 +9993,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A242" s="2" t="s">
         <v>173</v>
       </c>
@@ -10014,7 +10013,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A243" s="2" t="s">
         <v>321</v>
       </c>
@@ -10034,7 +10033,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A244" s="2" t="s">
         <v>114</v>
       </c>
@@ -10054,7 +10053,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A245" s="2" t="s">
         <v>575</v>
       </c>
@@ -10074,7 +10073,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A246" s="2" t="s">
         <v>577</v>
       </c>
@@ -10094,7 +10093,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A247" s="2" t="s">
         <v>6</v>
       </c>
@@ -10114,7 +10113,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A248" s="2" t="s">
         <v>575</v>
       </c>
@@ -10134,7 +10133,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A249" s="2" t="s">
         <v>582</v>
       </c>
@@ -10154,7 +10153,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A250" s="2" t="s">
         <v>86</v>
       </c>
@@ -10174,7 +10173,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A251" s="2" t="s">
         <v>585</v>
       </c>
@@ -10194,7 +10193,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A252" s="2" t="s">
         <v>588</v>
       </c>
@@ -10214,7 +10213,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A253" s="2" t="s">
         <v>592</v>
       </c>
@@ -10234,7 +10233,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A254" s="2" t="s">
         <v>6</v>
       </c>
@@ -10254,7 +10253,7 @@
         <v>2836</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A255" s="2" t="s">
         <v>9</v>
       </c>
@@ -10274,7 +10273,7 @@
         <v>3653</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A256" s="2" t="s">
         <v>12</v>
       </c>
@@ -10294,7 +10293,7 @@
         <v>4925</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A257" s="2" t="s">
         <v>15</v>
       </c>
@@ -10314,7 +10313,7 @@
         <v>6925</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A258" s="2" t="s">
         <v>18</v>
       </c>
@@ -10334,7 +10333,7 @@
         <v>2416</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A259" s="2" t="s">
         <v>21</v>
       </c>
@@ -10354,7 +10353,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A260" s="2" t="s">
         <v>24</v>
       </c>
@@ -10374,7 +10373,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A261" s="2" t="s">
         <v>6</v>
       </c>
@@ -10394,7 +10393,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A262" s="2" t="s">
         <v>28</v>
       </c>
@@ -10414,7 +10413,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A263" s="2" t="s">
         <v>31</v>
       </c>
@@ -10434,7 +10433,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A264" s="2" t="s">
         <v>36</v>
       </c>
@@ -10454,7 +10453,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A265" s="2" t="s">
         <v>6</v>
       </c>
@@ -10474,7 +10473,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A266" s="2" t="s">
         <v>42</v>
       </c>
@@ -10494,7 +10493,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A267" s="2" t="s">
         <v>46</v>
       </c>
@@ -10514,7 +10513,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A268" s="2" t="s">
         <v>49</v>
       </c>
@@ -10534,7 +10533,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A269" s="2" t="s">
         <v>6</v>
       </c>
@@ -10554,7 +10553,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A270" s="2" t="s">
         <v>54</v>
       </c>
@@ -10574,7 +10573,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A271" s="2" t="s">
         <v>58</v>
       </c>
@@ -10594,7 +10593,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A272" s="2" t="s">
         <v>62</v>
       </c>
@@ -10614,7 +10613,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A273" s="2" t="s">
         <v>6</v>
       </c>
@@ -10634,7 +10633,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A274" s="2" t="s">
         <v>68</v>
       </c>
@@ -10654,7 +10653,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A275" s="2" t="s">
         <v>6</v>
       </c>
@@ -10674,7 +10673,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A276" s="2" t="s">
         <v>73</v>
       </c>
@@ -10694,7 +10693,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A277" s="2" t="s">
         <v>77</v>
       </c>
@@ -10714,7 +10713,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A278" s="2" t="s">
         <v>81</v>
       </c>
@@ -10734,7 +10733,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A279" s="2" t="s">
         <v>86</v>
       </c>
@@ -10754,7 +10753,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A280" s="2" t="s">
         <v>89</v>
       </c>
@@ -10774,7 +10773,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A281" s="2" t="s">
         <v>93</v>
       </c>
@@ -10794,7 +10793,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A282" s="2" t="s">
         <v>96</v>
       </c>
@@ -10814,7 +10813,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A283" s="2" t="s">
         <v>99</v>
       </c>
@@ -10834,7 +10833,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A284" s="2" t="s">
         <v>103</v>
       </c>
@@ -10854,7 +10853,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A285" s="2" t="s">
         <v>106</v>
       </c>
@@ -10874,7 +10873,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A286" s="2" t="s">
         <v>110</v>
       </c>
@@ -10894,7 +10893,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A287" s="2" t="s">
         <v>114</v>
       </c>
@@ -10914,7 +10913,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A288" s="2" t="s">
         <v>99</v>
       </c>
@@ -10934,7 +10933,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A289" s="2" t="s">
         <v>93</v>
       </c>
@@ -10954,7 +10953,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A290" s="2" t="s">
         <v>123</v>
       </c>
@@ -10974,7 +10973,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A291" s="2" t="s">
         <v>128</v>
       </c>
@@ -10994,7 +10993,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A292" s="2" t="s">
         <v>131</v>
       </c>
@@ -11014,7 +11013,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A293" s="2" t="s">
         <v>131</v>
       </c>
@@ -11034,7 +11033,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A294" s="2" t="s">
         <v>136</v>
       </c>
@@ -11054,7 +11053,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A295" s="2" t="s">
         <v>139</v>
       </c>
@@ -11074,7 +11073,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A296" s="2" t="s">
         <v>141</v>
       </c>
@@ -11094,7 +11093,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A297" s="2" t="s">
         <v>144</v>
       </c>
@@ -11114,7 +11113,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A298" s="2" t="s">
         <v>146</v>
       </c>
@@ -11134,7 +11133,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A299" s="2" t="s">
         <v>148</v>
       </c>
@@ -11154,7 +11153,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A300" s="2" t="s">
         <v>151</v>
       </c>
@@ -11174,7 +11173,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A301" s="2" t="s">
         <v>153</v>
       </c>
@@ -11194,7 +11193,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A302" s="2" t="s">
         <v>156</v>
       </c>
@@ -11214,7 +11213,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A303" s="2" t="s">
         <v>159</v>
       </c>
@@ -11234,7 +11233,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A304" s="2" t="s">
         <v>28</v>
       </c>
@@ -11254,7 +11253,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A305" s="2" t="s">
         <v>6</v>
       </c>
@@ -11274,7 +11273,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A306" s="2" t="s">
         <v>166</v>
       </c>
@@ -11294,7 +11293,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A307" s="2" t="s">
         <v>31</v>
       </c>
@@ -11314,7 +11313,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A308" s="2" t="s">
         <v>128</v>
       </c>
@@ -11334,7 +11333,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A309" s="2" t="s">
         <v>171</v>
       </c>
@@ -11354,7 +11353,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A310" s="2" t="s">
         <v>173</v>
       </c>
@@ -11374,7 +11373,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A311" s="2" t="s">
         <v>177</v>
       </c>
@@ -11394,7 +11393,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A312" s="2" t="s">
         <v>180</v>
       </c>
@@ -11414,7 +11413,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A313" s="2" t="s">
         <v>183</v>
       </c>
@@ -11434,7 +11433,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A314" s="2" t="s">
         <v>186</v>
       </c>
@@ -11454,7 +11453,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A315" s="2" t="s">
         <v>18</v>
       </c>
@@ -11474,7 +11473,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A316" s="2" t="s">
         <v>190</v>
       </c>
@@ -11494,7 +11493,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A317" s="2" t="s">
         <v>18</v>
       </c>
@@ -11514,7 +11513,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A318" s="2" t="s">
         <v>68</v>
       </c>
@@ -11534,7 +11533,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A319" s="2" t="s">
         <v>195</v>
       </c>
@@ -11554,7 +11553,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A320" s="2" t="s">
         <v>198</v>
       </c>
@@ -11574,7 +11573,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A321" s="2" t="s">
         <v>6</v>
       </c>
@@ -11594,7 +11593,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A322" s="2" t="s">
         <v>201</v>
       </c>
@@ -11614,7 +11613,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A323" s="2" t="s">
         <v>139</v>
       </c>
@@ -11634,7 +11633,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A324" s="2" t="s">
         <v>128</v>
       </c>
@@ -11654,7 +11653,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A325" s="2" t="s">
         <v>207</v>
       </c>
@@ -11674,7 +11673,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A326" s="2" t="s">
         <v>139</v>
       </c>
@@ -11694,7 +11693,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A327" s="2" t="s">
         <v>18</v>
       </c>
@@ -11714,7 +11713,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A328" s="2" t="s">
         <v>212</v>
       </c>
@@ -11734,7 +11733,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A329" s="2" t="s">
         <v>214</v>
       </c>
@@ -11754,7 +11753,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A330" s="2" t="s">
         <v>216</v>
       </c>
@@ -11774,7 +11773,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A331" s="2" t="s">
         <v>68</v>
       </c>
@@ -11794,7 +11793,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A332" s="2" t="s">
         <v>220</v>
       </c>
@@ -11814,7 +11813,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A333" s="2" t="s">
         <v>222</v>
       </c>
@@ -11834,7 +11833,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A334" s="2" t="s">
         <v>224</v>
       </c>
@@ -11854,7 +11853,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A335" s="2" t="s">
         <v>216</v>
       </c>
@@ -11874,7 +11873,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A336" s="2" t="s">
         <v>228</v>
       </c>
@@ -11894,7 +11893,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A337" s="2" t="s">
         <v>232</v>
       </c>
@@ -11914,7 +11913,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A338" s="2" t="s">
         <v>114</v>
       </c>
@@ -11934,7 +11933,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A339" s="2" t="s">
         <v>237</v>
       </c>
@@ -11954,7 +11953,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A340" s="2" t="s">
         <v>240</v>
       </c>
@@ -11974,7 +11973,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A341" s="2" t="s">
         <v>243</v>
       </c>
@@ -11994,7 +11993,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A342" s="2" t="s">
         <v>246</v>
       </c>
@@ -12014,7 +12013,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A343" s="2" t="s">
         <v>249</v>
       </c>
@@ -12034,7 +12033,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A344" s="2" t="s">
         <v>114</v>
       </c>
@@ -12054,7 +12053,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A345" s="2" t="s">
         <v>254</v>
       </c>
@@ -12074,7 +12073,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A346" s="2" t="s">
         <v>86</v>
       </c>
@@ -12094,7 +12093,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A347" s="2" t="s">
         <v>249</v>
       </c>
@@ -12114,7 +12113,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A348" s="2" t="s">
         <v>237</v>
       </c>
@@ -12134,7 +12133,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A349" s="2" t="s">
         <v>6</v>
       </c>
@@ -12154,7 +12153,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A350" s="2" t="s">
         <v>262</v>
       </c>
@@ -12174,7 +12173,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A351" s="2" t="s">
         <v>224</v>
       </c>
@@ -12194,7 +12193,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A352" s="2" t="s">
         <v>266</v>
       </c>
@@ -12214,7 +12213,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A353" s="2" t="s">
         <v>268</v>
       </c>
@@ -12234,7 +12233,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A354" s="2" t="s">
         <v>270</v>
       </c>
@@ -12254,7 +12253,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A355" s="2" t="s">
         <v>273</v>
       </c>
@@ -12274,7 +12273,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A356" s="2" t="s">
         <v>277</v>
       </c>
@@ -12294,7 +12293,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A357" s="2" t="s">
         <v>280</v>
       </c>
@@ -12314,7 +12313,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A358" s="2" t="s">
         <v>283</v>
       </c>
@@ -12334,7 +12333,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A359" s="2" t="s">
         <v>286</v>
       </c>
@@ -12354,7 +12353,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A360" s="2" t="s">
         <v>290</v>
       </c>
@@ -12374,7 +12373,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A361" s="2" t="s">
         <v>292</v>
       </c>
@@ -12394,7 +12393,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A362" s="2" t="s">
         <v>173</v>
       </c>
@@ -12414,7 +12413,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A363" s="2" t="s">
         <v>249</v>
       </c>
@@ -12434,7 +12433,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A364" s="2" t="s">
         <v>300</v>
       </c>
@@ -12454,7 +12453,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A365" s="2" t="s">
         <v>114</v>
       </c>
@@ -12474,7 +12473,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A366" s="2" t="s">
         <v>304</v>
       </c>
@@ -12494,7 +12493,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A367" s="2" t="s">
         <v>307</v>
       </c>
@@ -12514,7 +12513,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A368" s="2" t="s">
         <v>309</v>
       </c>
@@ -12534,7 +12533,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A369" s="2" t="s">
         <v>312</v>
       </c>
@@ -12554,7 +12553,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A370" s="2" t="s">
         <v>315</v>
       </c>
@@ -12574,7 +12573,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A371" s="2" t="s">
         <v>318</v>
       </c>
@@ -12594,7 +12593,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A372" s="2" t="s">
         <v>321</v>
       </c>
@@ -12614,7 +12613,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A373" s="2" t="s">
         <v>28</v>
       </c>
@@ -12634,7 +12633,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A374" s="2" t="s">
         <v>283</v>
       </c>
@@ -12654,7 +12653,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A375" s="2" t="s">
         <v>327</v>
       </c>
@@ -12674,7 +12673,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A376" s="2" t="s">
         <v>329</v>
       </c>
@@ -12694,7 +12693,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A377" s="2" t="s">
         <v>283</v>
       </c>
@@ -12714,7 +12713,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A378" s="2" t="s">
         <v>333</v>
       </c>
@@ -12734,7 +12733,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A379" s="2" t="s">
         <v>336</v>
       </c>
@@ -12754,7 +12753,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A380" s="2" t="s">
         <v>128</v>
       </c>
@@ -12774,7 +12773,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A381" s="2" t="s">
         <v>341</v>
       </c>
@@ -12794,7 +12793,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A382" s="2" t="s">
         <v>343</v>
       </c>
@@ -12814,7 +12813,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A383" s="2" t="s">
         <v>345</v>
       </c>
@@ -12834,7 +12833,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A384" s="2" t="s">
         <v>128</v>
       </c>
@@ -12854,7 +12853,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A385" s="2" t="s">
         <v>349</v>
       </c>
@@ -12874,7 +12873,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A386" s="2" t="s">
         <v>351</v>
       </c>
@@ -12894,7 +12893,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A387" s="2" t="s">
         <v>353</v>
       </c>
@@ -12914,7 +12913,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A388" s="2" t="s">
         <v>355</v>
       </c>
@@ -12934,7 +12933,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A389" s="2" t="s">
         <v>358</v>
       </c>
@@ -12954,7 +12953,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A390" s="2" t="s">
         <v>349</v>
       </c>
@@ -12974,7 +12973,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A391" s="2" t="s">
         <v>362</v>
       </c>
@@ -12994,7 +12993,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A392" s="2" t="s">
         <v>364</v>
       </c>
@@ -13014,7 +13013,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A393" s="2" t="s">
         <v>353</v>
       </c>
@@ -13034,7 +13033,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A394" s="2" t="s">
         <v>367</v>
       </c>
@@ -13054,7 +13053,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A395" s="2" t="s">
         <v>6</v>
       </c>
@@ -13074,7 +13073,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A396" s="2" t="s">
         <v>28</v>
       </c>
@@ -13094,7 +13093,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A397" s="2" t="s">
         <v>371</v>
       </c>
@@ -13114,7 +13113,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A398" s="2" t="s">
         <v>373</v>
       </c>
@@ -13134,7 +13133,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A399" s="2" t="s">
         <v>375</v>
       </c>
@@ -13154,7 +13153,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A400" s="2" t="s">
         <v>36</v>
       </c>
@@ -13174,7 +13173,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A401" s="2" t="s">
         <v>283</v>
       </c>
@@ -13194,7 +13193,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A402" s="2" t="s">
         <v>246</v>
       </c>
@@ -13214,7 +13213,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A403" s="2" t="s">
         <v>386</v>
       </c>
@@ -13234,7 +13233,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A404" s="2" t="s">
         <v>388</v>
       </c>
@@ -13254,7 +13253,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A405" s="2" t="s">
         <v>243</v>
       </c>
@@ -13274,7 +13273,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A406" s="2" t="s">
         <v>392</v>
       </c>
@@ -13294,7 +13293,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A407" s="2" t="s">
         <v>228</v>
       </c>
@@ -13314,7 +13313,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A408" s="2" t="s">
         <v>28</v>
       </c>
@@ -13334,7 +13333,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A409" s="2" t="s">
         <v>6</v>
       </c>
@@ -13354,7 +13353,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A410" s="2" t="s">
         <v>399</v>
       </c>
@@ -13374,7 +13373,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A411" s="2" t="s">
         <v>283</v>
       </c>
@@ -13394,7 +13393,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A412" s="2" t="s">
         <v>166</v>
       </c>
@@ -13414,7 +13413,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A413" s="2" t="s">
         <v>404</v>
       </c>
@@ -13434,7 +13433,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A414" s="2" t="s">
         <v>28</v>
       </c>
@@ -13454,7 +13453,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A415" s="2" t="s">
         <v>283</v>
       </c>
@@ -13474,7 +13473,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A416" s="2" t="s">
         <v>409</v>
       </c>
@@ -13494,7 +13493,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A417" s="2" t="s">
         <v>411</v>
       </c>
@@ -13514,7 +13513,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A418" s="2" t="s">
         <v>166</v>
       </c>
@@ -13534,7 +13533,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A419" s="2" t="s">
         <v>414</v>
       </c>
@@ -13554,7 +13553,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A420" s="2" t="s">
         <v>416</v>
       </c>
@@ -13574,7 +13573,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A421" s="2" t="s">
         <v>418</v>
       </c>
@@ -13594,7 +13593,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A422" s="2" t="s">
         <v>249</v>
       </c>
@@ -13614,7 +13613,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A423" s="2" t="s">
         <v>418</v>
       </c>
@@ -13634,7 +13633,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A424" s="2" t="s">
         <v>93</v>
       </c>
@@ -13654,7 +13653,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A425" s="2" t="s">
         <v>28</v>
       </c>
@@ -13674,7 +13673,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A426" s="2" t="s">
         <v>426</v>
       </c>
@@ -13694,7 +13693,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A427" s="2" t="s">
         <v>6</v>
       </c>
@@ -13714,7 +13713,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A428" s="2" t="s">
         <v>429</v>
       </c>
@@ -13734,7 +13733,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A429" s="2" t="s">
         <v>432</v>
       </c>
@@ -13754,7 +13753,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A430" s="2" t="s">
         <v>290</v>
       </c>
@@ -13774,7 +13773,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A431" s="2" t="s">
         <v>243</v>
       </c>
@@ -13794,7 +13793,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A432" s="2" t="s">
         <v>307</v>
       </c>
@@ -13814,7 +13813,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A433" s="2" t="s">
         <v>439</v>
       </c>
@@ -13834,7 +13833,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A434" s="2" t="s">
         <v>36</v>
       </c>
@@ -13854,7 +13853,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A435" s="2" t="s">
         <v>93</v>
       </c>
@@ -13874,7 +13873,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A436" s="2" t="s">
         <v>6</v>
       </c>
@@ -13894,7 +13893,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A437" s="2" t="s">
         <v>58</v>
       </c>
@@ -13914,7 +13913,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A438" s="2" t="s">
         <v>445</v>
       </c>
@@ -13934,7 +13933,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A439" s="2" t="s">
         <v>449</v>
       </c>
@@ -13954,7 +13953,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A440" s="2" t="s">
         <v>283</v>
       </c>
@@ -13974,7 +13973,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A441" s="2" t="s">
         <v>453</v>
       </c>
@@ -13994,7 +13993,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A442" s="2" t="s">
         <v>455</v>
       </c>
@@ -14014,7 +14013,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A443" s="2" t="s">
         <v>457</v>
       </c>
@@ -14034,7 +14033,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A444" s="2" t="s">
         <v>459</v>
       </c>
@@ -14054,7 +14053,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A445" s="2" t="s">
         <v>461</v>
       </c>
@@ -14074,7 +14073,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A446" s="2" t="s">
         <v>463</v>
       </c>
@@ -14094,7 +14093,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A447" s="2" t="s">
         <v>465</v>
       </c>
@@ -14114,7 +14113,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A448" s="2" t="s">
         <v>467</v>
       </c>
@@ -14134,7 +14133,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A449" s="2" t="s">
         <v>470</v>
       </c>
@@ -14154,7 +14153,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A450" s="2" t="s">
         <v>6</v>
       </c>
@@ -14174,7 +14173,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A451" s="2" t="s">
         <v>473</v>
       </c>
@@ -14194,7 +14193,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A452" s="2" t="s">
         <v>475</v>
       </c>
@@ -14214,7 +14213,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A453" s="2" t="s">
         <v>58</v>
       </c>
@@ -14234,7 +14233,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A454" s="2" t="s">
         <v>479</v>
       </c>
@@ -14254,7 +14253,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A455" s="2" t="s">
         <v>481</v>
       </c>
@@ -14274,7 +14273,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A456" s="2" t="s">
         <v>484</v>
       </c>
@@ -14294,7 +14293,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A457" s="2" t="s">
         <v>461</v>
       </c>
@@ -14314,7 +14313,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A458" s="2" t="s">
         <v>487</v>
       </c>
@@ -14334,7 +14333,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A459" s="2" t="s">
         <v>283</v>
       </c>
@@ -14354,7 +14353,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A460" s="2" t="s">
         <v>491</v>
       </c>
@@ -14374,7 +14373,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A461" s="2" t="s">
         <v>493</v>
       </c>
@@ -14394,7 +14393,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A462" s="2" t="s">
         <v>283</v>
       </c>
@@ -14414,7 +14413,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A463" s="2" t="s">
         <v>283</v>
       </c>
@@ -14434,7 +14433,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A464" s="2" t="s">
         <v>497</v>
       </c>
@@ -14454,7 +14453,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A465" s="2" t="s">
         <v>499</v>
       </c>
@@ -14474,7 +14473,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A466" s="2" t="s">
         <v>502</v>
       </c>
@@ -14494,7 +14493,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A467" s="2" t="s">
         <v>504</v>
       </c>
@@ -14514,7 +14513,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A468" s="2" t="s">
         <v>506</v>
       </c>
@@ -14534,7 +14533,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A469" s="2" t="s">
         <v>166</v>
       </c>
@@ -14554,7 +14553,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A470" s="2" t="s">
         <v>511</v>
       </c>
@@ -14574,7 +14573,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A471" s="2" t="s">
         <v>515</v>
       </c>
@@ -14594,7 +14593,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A472" s="2" t="s">
         <v>517</v>
       </c>
@@ -14614,7 +14613,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A473" s="2" t="s">
         <v>28</v>
       </c>
@@ -14634,7 +14633,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A474" s="2" t="s">
         <v>523</v>
       </c>
@@ -14654,7 +14653,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A475" s="2" t="s">
         <v>526</v>
       </c>
@@ -14674,7 +14673,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A476" s="2" t="s">
         <v>531</v>
       </c>
@@ -14694,7 +14693,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A477" s="2" t="s">
         <v>355</v>
       </c>
@@ -14714,7 +14713,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A478" s="2" t="s">
         <v>537</v>
       </c>
@@ -14734,7 +14733,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A479" s="2" t="s">
         <v>539</v>
       </c>
@@ -14754,7 +14753,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A480" s="2" t="s">
         <v>114</v>
       </c>
@@ -14774,7 +14773,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A481" s="2" t="s">
         <v>542</v>
       </c>
@@ -14794,7 +14793,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A482" s="2" t="s">
         <v>6</v>
       </c>
@@ -14814,7 +14813,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A483" s="2" t="s">
         <v>546</v>
       </c>
@@ -14834,7 +14833,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A484" s="2" t="s">
         <v>549</v>
       </c>
@@ -14854,7 +14853,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A485" s="2" t="s">
         <v>551</v>
       </c>
@@ -14874,7 +14873,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A486" s="2" t="s">
         <v>553</v>
       </c>
@@ -14894,7 +14893,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A487" s="2" t="s">
         <v>556</v>
       </c>
@@ -14914,7 +14913,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A488" s="2" t="s">
         <v>559</v>
       </c>
@@ -14934,7 +14933,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A489" s="2" t="s">
         <v>6</v>
       </c>
@@ -14954,7 +14953,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A490" s="2" t="s">
         <v>563</v>
       </c>
@@ -14974,7 +14973,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A491" s="2" t="s">
         <v>566</v>
       </c>
@@ -14994,7 +14993,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A492" s="2" t="s">
         <v>568</v>
       </c>
@@ -15014,7 +15013,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A493" s="2" t="s">
         <v>28</v>
       </c>
@@ -15034,7 +15033,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A494" s="2" t="s">
         <v>173</v>
       </c>
@@ -15054,7 +15053,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A495" s="2" t="s">
         <v>321</v>
       </c>
@@ -15074,7 +15073,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A496" s="2" t="s">
         <v>114</v>
       </c>
@@ -15094,7 +15093,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A497" s="2" t="s">
         <v>575</v>
       </c>
@@ -15114,7 +15113,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A498" s="2" t="s">
         <v>577</v>
       </c>
@@ -15134,7 +15133,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A499" s="2" t="s">
         <v>6</v>
       </c>
@@ -15154,7 +15153,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A500" s="2" t="s">
         <v>575</v>
       </c>
@@ -15174,7 +15173,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A501" s="2" t="s">
         <v>582</v>
       </c>
@@ -15194,7 +15193,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A502" s="2" t="s">
         <v>86</v>
       </c>
@@ -15214,7 +15213,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A503" s="2" t="s">
         <v>585</v>
       </c>
@@ -15234,7 +15233,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A504" s="2" t="s">
         <v>588</v>
       </c>
@@ -15254,7 +15253,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A505" s="2" t="s">
         <v>592</v>
       </c>
@@ -15274,7 +15273,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A506" s="2" t="s">
         <v>596</v>
       </c>
@@ -15294,7 +15293,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A507" s="2" t="s">
         <v>128</v>
       </c>
@@ -15314,7 +15313,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A508" s="2" t="s">
         <v>600</v>
       </c>
@@ -15334,7 +15333,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A509" s="2" t="s">
         <v>603</v>
       </c>
@@ -15354,7 +15353,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A510" s="2" t="s">
         <v>605</v>
       </c>
@@ -15374,7 +15373,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A511" s="2" t="s">
         <v>607</v>
       </c>
@@ -15394,7 +15393,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A512" s="2" t="s">
         <v>610</v>
       </c>
@@ -15414,7 +15413,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A513" s="2" t="s">
         <v>577</v>
       </c>
@@ -15434,7 +15433,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A514" s="2" t="s">
         <v>615</v>
       </c>
@@ -15454,7 +15453,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A515" s="2" t="s">
         <v>531</v>
       </c>
@@ -15474,7 +15473,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A516" s="2" t="s">
         <v>619</v>
       </c>
@@ -15494,7 +15493,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A517" s="2" t="s">
         <v>621</v>
       </c>
@@ -15514,7 +15513,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A518" s="2" t="s">
         <v>624</v>
       </c>
@@ -15534,7 +15533,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A519" s="2" t="s">
         <v>627</v>
       </c>
@@ -15554,7 +15553,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A520" s="2" t="s">
         <v>630</v>
       </c>
@@ -15574,7 +15573,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A521" s="2" t="s">
         <v>633</v>
       </c>
@@ -15594,7 +15593,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A522" s="2" t="s">
         <v>635</v>
       </c>
@@ -15614,7 +15613,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A523" s="2" t="s">
         <v>637</v>
       </c>
@@ -15634,7 +15633,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A524" s="2" t="s">
         <v>640</v>
       </c>
@@ -15654,7 +15653,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A525" s="2" t="s">
         <v>642</v>
       </c>
@@ -15674,7 +15673,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A526" s="2" t="s">
         <v>644</v>
       </c>
@@ -15694,7 +15693,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A527" s="2" t="s">
         <v>646</v>
       </c>
@@ -15714,7 +15713,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A528" s="2" t="s">
         <v>648</v>
       </c>
@@ -15734,7 +15733,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A529" s="2" t="s">
         <v>650</v>
       </c>
@@ -15754,7 +15753,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A530" s="2" t="s">
         <v>652</v>
       </c>
@@ -15774,7 +15773,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A531" s="2" t="s">
         <v>654</v>
       </c>
@@ -15794,7 +15793,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="532" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A532" s="2" t="s">
         <v>656</v>
       </c>
@@ -15814,7 +15813,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="533" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A533" s="2" t="s">
         <v>658</v>
       </c>
@@ -15834,7 +15833,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="534" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A534" s="2" t="s">
         <v>661</v>
       </c>
@@ -15854,7 +15853,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A535" s="2" t="s">
         <v>615</v>
       </c>
@@ -15874,7 +15873,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="536" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A536" s="2" t="s">
         <v>664</v>
       </c>
@@ -15894,7 +15893,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="537" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A537" s="2" t="s">
         <v>667</v>
       </c>
@@ -15914,7 +15913,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="538" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A538" s="2" t="s">
         <v>670</v>
       </c>
@@ -15934,7 +15933,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="539" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A539" s="2" t="s">
         <v>673</v>
       </c>
@@ -15954,7 +15953,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="540" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A540" s="2" t="s">
         <v>630</v>
       </c>
@@ -15974,7 +15973,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="541" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A541" s="2" t="s">
         <v>615</v>
       </c>
@@ -15994,7 +15993,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="542" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A542" s="2" t="s">
         <v>644</v>
       </c>
@@ -16014,7 +16013,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="543" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A543" s="2" t="s">
         <v>682</v>
       </c>
@@ -16034,7 +16033,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="544" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A544" s="2" t="s">
         <v>685</v>
       </c>
@@ -16054,7 +16053,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="545" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A545" s="2" t="s">
         <v>688</v>
       </c>
@@ -16074,7 +16073,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="546" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A546" s="2" t="s">
         <v>18</v>
       </c>
@@ -16094,7 +16093,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="547" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A547" s="2" t="s">
         <v>445</v>
       </c>
@@ -16114,7 +16113,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="548" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A548" s="2" t="s">
         <v>693</v>
       </c>
@@ -16134,7 +16133,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="549" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A549" s="2" t="s">
         <v>630</v>
       </c>
@@ -16154,7 +16153,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="550" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A550" s="2" t="s">
         <v>615</v>
       </c>
@@ -16174,7 +16173,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="551" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A551" s="2" t="s">
         <v>700</v>
       </c>
@@ -16194,7 +16193,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="552" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A552" s="2" t="s">
         <v>615</v>
       </c>
@@ -16214,7 +16213,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="553" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A553" s="2" t="s">
         <v>304</v>
       </c>
@@ -16234,7 +16233,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="554" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A554" s="2" t="s">
         <v>706</v>
       </c>
@@ -16254,7 +16253,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="555" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A555" s="2" t="s">
         <v>709</v>
       </c>
@@ -16274,7 +16273,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="556" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A556" s="2" t="s">
         <v>18</v>
       </c>
@@ -16294,7 +16293,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="557" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A557" s="2" t="s">
         <v>713</v>
       </c>
@@ -16314,7 +16313,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="558" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A558" s="2" t="s">
         <v>18</v>
       </c>
@@ -16334,7 +16333,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="559" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A559" s="2" t="s">
         <v>718</v>
       </c>
@@ -16354,7 +16353,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="560" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A560" s="2" t="s">
         <v>721</v>
       </c>
@@ -16374,7 +16373,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="561" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A561" s="2" t="s">
         <v>724</v>
       </c>
@@ -16394,7 +16393,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="562" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A562" s="2" t="s">
         <v>726</v>
       </c>
@@ -16414,7 +16413,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="563" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A563" s="2" t="s">
         <v>728</v>
       </c>
@@ -16434,7 +16433,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="564" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A564" s="2" t="s">
         <v>6</v>
       </c>
@@ -16454,7 +16453,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="565" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A565" s="2" t="s">
         <v>732</v>
       </c>
@@ -16474,7 +16473,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="566" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A566" s="2" t="s">
         <v>18</v>
       </c>
@@ -16494,7 +16493,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="567" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A567" s="2" t="s">
         <v>6</v>
       </c>
@@ -16514,7 +16513,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="568" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A568" s="2" t="s">
         <v>737</v>
       </c>
@@ -16534,7 +16533,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="569" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A569" s="2" t="s">
         <v>739</v>
       </c>
@@ -16554,7 +16553,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="570" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A570" s="2" t="s">
         <v>741</v>
       </c>
@@ -16574,7 +16573,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="571" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A571" s="2" t="s">
         <v>743</v>
       </c>
@@ -16594,7 +16593,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="572" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A572" s="2" t="s">
         <v>745</v>
       </c>
@@ -16614,7 +16613,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="573" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A573" s="2" t="s">
         <v>747</v>
       </c>
@@ -16634,7 +16633,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="574" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A574" s="2" t="s">
         <v>18</v>
       </c>
@@ -16654,7 +16653,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="575" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A575" s="2" t="s">
         <v>750</v>
       </c>
@@ -16674,7 +16673,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="576" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A576" s="2" t="s">
         <v>752</v>
       </c>
@@ -16694,7 +16693,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="577" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A577" s="2" t="s">
         <v>106</v>
       </c>
@@ -16714,7 +16713,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="578" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A578" s="2" t="s">
         <v>755</v>
       </c>
@@ -16734,7 +16733,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="579" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A579" s="2" t="s">
         <v>18</v>
       </c>
@@ -16754,7 +16753,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="580" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A580" s="2" t="s">
         <v>758</v>
       </c>
@@ -16774,7 +16773,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="581" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A581" s="2" t="s">
         <v>18</v>
       </c>
@@ -16794,7 +16793,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="582" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A582" s="2" t="s">
         <v>761</v>
       </c>
@@ -16814,7 +16813,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="583" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A583" s="2" t="s">
         <v>18</v>
       </c>
@@ -16834,7 +16833,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="584" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A584" s="2" t="s">
         <v>18</v>
       </c>
@@ -16854,7 +16853,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="585" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A585" s="2" t="s">
         <v>758</v>
       </c>
@@ -16874,7 +16873,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="586" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A586" s="2" t="s">
         <v>766</v>
       </c>
@@ -16894,7 +16893,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="587" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A587" s="2" t="s">
         <v>768</v>
       </c>
@@ -16914,7 +16913,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="588" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A588" s="2" t="s">
         <v>770</v>
       </c>
@@ -16934,7 +16933,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="589" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A589" s="2" t="s">
         <v>772</v>
       </c>
@@ -16954,7 +16953,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="590" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A590" s="2" t="s">
         <v>774</v>
       </c>
@@ -16974,7 +16973,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="591" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A591" s="2" t="s">
         <v>776</v>
       </c>
@@ -16994,7 +16993,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="592" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A592" s="2" t="s">
         <v>779</v>
       </c>
@@ -17014,7 +17013,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="593" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A593" s="2" t="s">
         <v>781</v>
       </c>
@@ -17034,7 +17033,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="594" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A594" s="2" t="s">
         <v>758</v>
       </c>
@@ -17054,7 +17053,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="595" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A595" s="2" t="s">
         <v>784</v>
       </c>
@@ -17074,7 +17073,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="596" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A596" s="2" t="s">
         <v>786</v>
       </c>
@@ -17094,7 +17093,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="597" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A597" s="2" t="s">
         <v>750</v>
       </c>
@@ -17114,7 +17113,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="598" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A598" s="2" t="s">
         <v>207</v>
       </c>
@@ -17134,7 +17133,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="599" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A599" s="2" t="s">
         <v>18</v>
       </c>
@@ -17154,7 +17153,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="600" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A600" s="2" t="s">
         <v>392</v>
       </c>
@@ -17174,7 +17173,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="601" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A601" s="2" t="s">
         <v>792</v>
       </c>
@@ -17194,7 +17193,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="602" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A602" s="2" t="s">
         <v>128</v>
       </c>
@@ -17214,7 +17213,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="603" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A603" s="2" t="s">
         <v>747</v>
       </c>
@@ -17234,7 +17233,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="604" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A604" s="2" t="s">
         <v>445</v>
       </c>
@@ -17254,7 +17253,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="605" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A605" s="2" t="s">
         <v>796</v>
       </c>
@@ -17274,7 +17273,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="606" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A606" s="2" t="s">
         <v>798</v>
       </c>
@@ -17294,7 +17293,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="607" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A607" s="2" t="s">
         <v>801</v>
       </c>
@@ -17314,7 +17313,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="608" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A608" s="2" t="s">
         <v>798</v>
       </c>
@@ -17334,7 +17333,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="609" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A609" s="2" t="s">
         <v>804</v>
       </c>
@@ -17354,7 +17353,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="610" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A610" s="2" t="s">
         <v>806</v>
       </c>
@@ -17374,7 +17373,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="611" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A611" s="2" t="s">
         <v>706</v>
       </c>
@@ -17394,7 +17393,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="612" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A612" s="2" t="s">
         <v>811</v>
       </c>
@@ -17414,7 +17413,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="613" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A613" s="2" t="s">
         <v>559</v>
       </c>
@@ -17434,7 +17433,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="614" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A614" s="2" t="s">
         <v>814</v>
       </c>
@@ -17454,7 +17453,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="615" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A615" s="2" t="s">
         <v>816</v>
       </c>
@@ -17474,7 +17473,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="616" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A616" s="2" t="s">
         <v>228</v>
       </c>
@@ -17494,7 +17493,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="617" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A617" s="2" t="s">
         <v>86</v>
       </c>
@@ -17514,7 +17513,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="618" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A618" s="2" t="s">
         <v>821</v>
       </c>
@@ -17534,7 +17533,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="619" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A619" s="2" t="s">
         <v>823</v>
       </c>
@@ -17554,7 +17553,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="620" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A620" s="2" t="s">
         <v>825</v>
       </c>
@@ -17574,7 +17573,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="621" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A621" s="2" t="s">
         <v>386</v>
       </c>
@@ -17594,7 +17593,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="622" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A622" s="2" t="s">
         <v>830</v>
       </c>
@@ -17614,7 +17613,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="623" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A623" s="2" t="s">
         <v>86</v>
       </c>
@@ -17634,7 +17633,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="624" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A624" s="2" t="s">
         <v>833</v>
       </c>
@@ -17654,7 +17653,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="625" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A625" s="2" t="s">
         <v>28</v>
       </c>
@@ -17674,7 +17673,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="626" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A626" s="2" t="s">
         <v>838</v>
       </c>
@@ -17694,7 +17693,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="627" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A627" s="2" t="s">
         <v>840</v>
       </c>
@@ -17714,7 +17713,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="628" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A628" s="2" t="s">
         <v>843</v>
       </c>
@@ -17734,7 +17733,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="629" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A629" s="2" t="s">
         <v>86</v>
       </c>
@@ -17754,7 +17753,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="630" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A630" s="2" t="s">
         <v>848</v>
       </c>
@@ -17774,7 +17773,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="631" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A631" s="2" t="s">
         <v>851</v>
       </c>
@@ -17794,7 +17793,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="632" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A632" s="2" t="s">
         <v>367</v>
       </c>
@@ -17814,7 +17813,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="633" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A633" s="2" t="s">
         <v>504</v>
       </c>
@@ -17834,7 +17833,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="634" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A634" s="2" t="s">
         <v>838</v>
       </c>
@@ -17854,7 +17853,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="635" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A635" s="2" t="s">
         <v>858</v>
       </c>
@@ -17874,7 +17873,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="636" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A636" s="2" t="s">
         <v>706</v>
       </c>
@@ -17894,7 +17893,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="637" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A637" s="2" t="s">
         <v>86</v>
       </c>
@@ -17914,7 +17913,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="638" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A638" s="2" t="s">
         <v>243</v>
       </c>
@@ -17934,7 +17933,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="639" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A639" s="2" t="s">
         <v>865</v>
       </c>
@@ -17954,7 +17953,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="640" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A640" s="2" t="s">
         <v>439</v>
       </c>
@@ -17974,7 +17973,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="641" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A641" s="2" t="s">
         <v>237</v>
       </c>
@@ -17994,7 +17993,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="642" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A642" s="2" t="s">
         <v>870</v>
       </c>
@@ -18014,7 +18013,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="643" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A643" s="2" t="s">
         <v>872</v>
       </c>
@@ -18034,7 +18033,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="644" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A644" s="2" t="s">
         <v>875</v>
       </c>
@@ -18054,7 +18053,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="645" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A645" s="2" t="s">
         <v>246</v>
       </c>
@@ -18074,7 +18073,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="646" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A646" s="2" t="s">
         <v>243</v>
       </c>
@@ -18094,7 +18093,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="647" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A647" s="2" t="s">
         <v>224</v>
       </c>
@@ -18114,7 +18113,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="648" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A648" s="2" t="s">
         <v>86</v>
       </c>
@@ -18134,7 +18133,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="649" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A649" s="2" t="s">
         <v>232</v>
       </c>
@@ -18154,7 +18153,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="650" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A650" s="2" t="s">
         <v>439</v>
       </c>
@@ -18174,7 +18173,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="651" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A651" s="2" t="s">
         <v>886</v>
       </c>
@@ -18194,7 +18193,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="652" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A652" s="2" t="s">
         <v>888</v>
       </c>
@@ -18214,7 +18213,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="653" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A653" s="2" t="s">
         <v>890</v>
       </c>
@@ -18234,7 +18233,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="654" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A654" s="2" t="s">
         <v>892</v>
       </c>
@@ -18254,7 +18253,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="655" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A655" s="2" t="s">
         <v>894</v>
       </c>
@@ -18274,7 +18273,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="656" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A656" s="2" t="s">
         <v>896</v>
       </c>
@@ -18294,7 +18293,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="657" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A657" s="2" t="s">
         <v>898</v>
       </c>
@@ -18314,7 +18313,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="658" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A658" s="2" t="s">
         <v>901</v>
       </c>
@@ -18334,7 +18333,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="659" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A659" s="2" t="s">
         <v>903</v>
       </c>
@@ -18354,7 +18353,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="660" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A660" s="2" t="s">
         <v>905</v>
       </c>
@@ -18374,7 +18373,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="661" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A661" s="2" t="s">
         <v>907</v>
       </c>
@@ -18394,7 +18393,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="662" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A662" s="2" t="s">
         <v>910</v>
       </c>
@@ -18414,7 +18413,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="663" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A663" s="2" t="s">
         <v>912</v>
       </c>
@@ -18434,7 +18433,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="664" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A664" s="2" t="s">
         <v>914</v>
       </c>
@@ -18454,7 +18453,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="665" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A665" s="2" t="s">
         <v>917</v>
       </c>
@@ -18474,7 +18473,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="666" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A666" s="2" t="s">
         <v>920</v>
       </c>
@@ -18494,7 +18493,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="667" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A667" s="2" t="s">
         <v>922</v>
       </c>
@@ -18514,7 +18513,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="668" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A668" s="2" t="s">
         <v>924</v>
       </c>
@@ -18534,7 +18533,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="669" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A669" s="2" t="s">
         <v>926</v>
       </c>
@@ -18554,7 +18553,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="670" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A670" s="2" t="s">
         <v>575</v>
       </c>
@@ -18574,7 +18573,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="671" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A671" s="2" t="s">
         <v>455</v>
       </c>
@@ -18594,7 +18593,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="672" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A672" s="2" t="s">
         <v>367</v>
       </c>
@@ -18614,7 +18613,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="673" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A673" s="2" t="s">
         <v>58</v>
       </c>
@@ -18634,7 +18633,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="674" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A674" s="2" t="s">
         <v>455</v>
       </c>
@@ -18654,7 +18653,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="675" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A675" s="2" t="s">
         <v>455</v>
       </c>
@@ -18674,7 +18673,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="676" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A676" s="2" t="s">
         <v>934</v>
       </c>
@@ -18694,7 +18693,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="677" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A677" s="2" t="s">
         <v>936</v>
       </c>
@@ -18714,7 +18713,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="678" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A678" s="2" t="s">
         <v>367</v>
       </c>
@@ -18734,7 +18733,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="679" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A679" s="2" t="s">
         <v>939</v>
       </c>
@@ -18754,7 +18753,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="680" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A680" s="2" t="s">
         <v>575</v>
       </c>
@@ -18774,7 +18773,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="681" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A681" s="2" t="s">
         <v>786</v>
       </c>
@@ -18794,7 +18793,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="682" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A682" s="2" t="s">
         <v>943</v>
       </c>
@@ -18814,7 +18813,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="683" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A683" s="2" t="s">
         <v>945</v>
       </c>
@@ -18834,7 +18833,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="684" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A684" s="2" t="s">
         <v>367</v>
       </c>
@@ -18854,7 +18853,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="685" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A685" s="2" t="s">
         <v>792</v>
       </c>
@@ -18874,7 +18873,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="686" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A686" s="2" t="s">
         <v>949</v>
       </c>
@@ -18894,7 +18893,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="687" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A687" s="2" t="s">
         <v>6</v>
       </c>
@@ -18914,7 +18913,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="688" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A688" s="2" t="s">
         <v>58</v>
       </c>
@@ -18934,7 +18933,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="689" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A689" s="2" t="s">
         <v>504</v>
       </c>
@@ -18954,7 +18953,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="690" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A690" s="2" t="s">
         <v>954</v>
       </c>
@@ -18974,7 +18973,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="691" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A691" s="2" t="s">
         <v>956</v>
       </c>
@@ -18994,7 +18993,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="692" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A692" s="2" t="s">
         <v>958</v>
       </c>
@@ -19014,7 +19013,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="693" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A693" s="2" t="s">
         <v>961</v>
       </c>
@@ -19034,7 +19033,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="694" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A694" s="2" t="s">
         <v>358</v>
       </c>
@@ -19054,7 +19053,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="695" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A695" s="2" t="s">
         <v>964</v>
       </c>
@@ -19074,7 +19073,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="696" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A696" s="2" t="s">
         <v>966</v>
       </c>
@@ -19094,7 +19093,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="697" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A697" s="2" t="s">
         <v>18</v>
       </c>
@@ -19114,7 +19113,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="698" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A698" s="2" t="s">
         <v>969</v>
       </c>
@@ -19134,7 +19133,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="699" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A699" s="2" t="s">
         <v>971</v>
       </c>
@@ -19154,7 +19153,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="700" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A700" s="2" t="s">
         <v>349</v>
       </c>
@@ -19174,7 +19173,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="701" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A701" s="2" t="s">
         <v>974</v>
       </c>
@@ -19194,7 +19193,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="702" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A702" s="2" t="s">
         <v>976</v>
       </c>
@@ -19214,7 +19213,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="703" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A703" s="2" t="s">
         <v>978</v>
       </c>
@@ -19234,7 +19233,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="704" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A704" s="2" t="s">
         <v>479</v>
       </c>
@@ -19254,7 +19253,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="705" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A705" s="2" t="s">
         <v>207</v>
       </c>
@@ -19274,7 +19273,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="706" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A706" s="2" t="s">
         <v>982</v>
       </c>
@@ -19294,7 +19293,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="707" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A707" s="2" t="s">
         <v>984</v>
       </c>
@@ -19314,7 +19313,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="708" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A708" s="2" t="s">
         <v>986</v>
       </c>
@@ -19334,7 +19333,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="709" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A709" s="2" t="s">
         <v>146</v>
       </c>
@@ -19354,7 +19353,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="710" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A710" s="2" t="s">
         <v>982</v>
       </c>
@@ -19374,7 +19373,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="711" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A711" s="2" t="s">
         <v>49</v>
       </c>
@@ -19394,7 +19393,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="712" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A712" s="2" t="s">
         <v>114</v>
       </c>
@@ -19414,7 +19413,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="713" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A713" s="2" t="s">
         <v>114</v>
       </c>
@@ -19434,7 +19433,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="714" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A714" s="2" t="s">
         <v>993</v>
       </c>
@@ -19454,7 +19453,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="715" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A715" s="2" t="s">
         <v>750</v>
       </c>
@@ -19474,7 +19473,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="716" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A716" s="2" t="s">
         <v>86</v>
       </c>
@@ -19494,7 +19493,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="717" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A717" s="2" t="s">
         <v>21</v>
       </c>
@@ -19514,7 +19513,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="718" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A718" s="2" t="s">
         <v>270</v>
       </c>
@@ -19534,7 +19533,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="719" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A719" s="2" t="s">
         <v>1000</v>
       </c>
@@ -19554,7 +19553,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="720" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A720" s="2" t="s">
         <v>949</v>
       </c>
@@ -19574,7 +19573,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="721" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A721" s="2" t="s">
         <v>86</v>
       </c>
@@ -19594,7 +19593,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="722" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A722" s="2" t="s">
         <v>1005</v>
       </c>
@@ -19614,7 +19613,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="723" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A723" s="2" t="s">
         <v>1007</v>
       </c>
@@ -19634,7 +19633,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="724" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A724" s="2" t="s">
         <v>750</v>
       </c>
@@ -19654,7 +19653,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="725" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A725" s="2" t="s">
         <v>392</v>
       </c>
@@ -19674,7 +19673,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="726" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A726" s="2" t="s">
         <v>978</v>
       </c>
@@ -19694,7 +19693,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="727" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A727" s="2" t="s">
         <v>1012</v>
       </c>
@@ -19714,7 +19713,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="728" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A728" s="2" t="s">
         <v>180</v>
       </c>
@@ -19734,7 +19733,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="729" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A729" s="2" t="s">
         <v>246</v>
       </c>
@@ -19754,7 +19753,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="730" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A730" s="2" t="s">
         <v>36</v>
       </c>
@@ -19774,7 +19773,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="731" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A731" s="2" t="s">
         <v>1017</v>
       </c>
@@ -19794,7 +19793,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="732" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A732" s="2" t="s">
         <v>964</v>
       </c>
@@ -19814,7 +19813,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="733" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A733" s="2" t="s">
         <v>1020</v>
       </c>
@@ -19834,7 +19833,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="734" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A734" s="2" t="s">
         <v>1022</v>
       </c>
@@ -19854,7 +19853,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="735" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A735" s="2" t="s">
         <v>1024</v>
       </c>
@@ -19874,7 +19873,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="736" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A736" s="2" t="s">
         <v>615</v>
       </c>
@@ -19894,7 +19893,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="737" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A737" s="2" t="s">
         <v>18</v>
       </c>
@@ -19914,7 +19913,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="738" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A738" s="2" t="s">
         <v>1028</v>
       </c>
@@ -19934,7 +19933,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="739" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A739" s="2" t="s">
         <v>1030</v>
       </c>
@@ -19954,7 +19953,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="740" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A740" s="2" t="s">
         <v>1032</v>
       </c>
@@ -19974,7 +19973,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="741" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A741" s="2" t="s">
         <v>1034</v>
       </c>
@@ -19994,7 +19993,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="742" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A742" s="2" t="s">
         <v>1036</v>
       </c>
@@ -20014,7 +20013,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="743" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A743" s="2" t="s">
         <v>1038</v>
       </c>
@@ -20034,7 +20033,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="744" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A744" s="2" t="s">
         <v>811</v>
       </c>
@@ -20054,7 +20053,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="745" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A745" s="2" t="s">
         <v>1041</v>
       </c>
@@ -20074,7 +20073,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="746" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A746" s="2" t="s">
         <v>688</v>
       </c>
@@ -20094,7 +20093,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="747" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A747" s="2" t="s">
         <v>1044</v>
       </c>
@@ -20114,7 +20113,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="748" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A748" s="2" t="s">
         <v>89</v>
       </c>
@@ -20134,7 +20133,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="749" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A749" s="2" t="s">
         <v>713</v>
       </c>
@@ -20154,7 +20153,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="750" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A750" s="2" t="s">
         <v>644</v>
       </c>
@@ -20174,7 +20173,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="751" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A751" s="2" t="s">
         <v>1051</v>
       </c>
@@ -20194,7 +20193,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="752" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A752" s="2" t="s">
         <v>1053</v>
       </c>
@@ -20214,7 +20213,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="753" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A753" s="2" t="s">
         <v>1056</v>
       </c>
@@ -20234,7 +20233,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="754" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A754" s="2" t="s">
         <v>114</v>
       </c>
@@ -20254,7 +20253,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="755" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A755" s="2" t="s">
         <v>304</v>
       </c>
@@ -20274,7 +20273,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="756" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A756" s="2" t="s">
         <v>18</v>
       </c>
@@ -20294,7 +20293,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="757" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A757" s="2" t="s">
         <v>964</v>
       </c>
@@ -20314,7 +20313,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="758" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A758" s="2" t="s">
         <v>1064</v>
       </c>
@@ -20334,7 +20333,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="759" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A759" s="2" t="s">
         <v>1066</v>
       </c>
@@ -20354,7 +20353,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="760" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A760" s="2" t="s">
         <v>982</v>
       </c>
@@ -20374,7 +20373,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="761" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A761" s="2" t="s">
         <v>1069</v>
       </c>
@@ -20394,7 +20393,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="762" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A762" s="2" t="s">
         <v>1071</v>
       </c>
@@ -20414,7 +20413,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="763" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A763" s="2" t="s">
         <v>1073</v>
       </c>
@@ -20434,7 +20433,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="764" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A764" s="2" t="s">
         <v>1075</v>
       </c>
@@ -20454,7 +20453,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="765" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A765" s="2" t="s">
         <v>1078</v>
       </c>
@@ -20474,7 +20473,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="766" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A766" s="2" t="s">
         <v>1080</v>
       </c>
@@ -20494,7 +20493,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="767" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A767" s="2" t="s">
         <v>1082</v>
       </c>
@@ -20514,7 +20513,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="768" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A768" s="2" t="s">
         <v>1084</v>
       </c>
@@ -20534,7 +20533,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="769" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A769" s="2" t="s">
         <v>1086</v>
       </c>
@@ -20554,7 +20553,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="770" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A770" s="2" t="s">
         <v>796</v>
       </c>
@@ -20574,7 +20573,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="771" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A771" s="2" t="s">
         <v>1089</v>
       </c>
@@ -20594,7 +20593,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="772" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A772" s="2" t="s">
         <v>1091</v>
       </c>
@@ -20614,7 +20613,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="773" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A773" s="2" t="s">
         <v>1093</v>
       </c>
@@ -20634,7 +20633,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="774" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A774" s="2" t="s">
         <v>1095</v>
       </c>
@@ -20654,7 +20653,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="775" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A775" s="2" t="s">
         <v>1097</v>
       </c>
@@ -20674,7 +20673,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="776" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A776" s="2" t="s">
         <v>1099</v>
       </c>
@@ -20694,7 +20693,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="777" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A777" s="2" t="s">
         <v>1101</v>
       </c>
@@ -20714,7 +20713,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="778" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A778" s="2" t="s">
         <v>1103</v>
       </c>
@@ -20734,7 +20733,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="779" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A779" s="2" t="s">
         <v>1105</v>
       </c>
@@ -20754,7 +20753,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="780" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A780" s="2" t="s">
         <v>1107</v>
       </c>
@@ -20774,7 +20773,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="781" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A781" s="2" t="s">
         <v>1109</v>
       </c>
@@ -20794,7 +20793,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="782" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A782" s="2" t="s">
         <v>747</v>
       </c>
@@ -20814,7 +20813,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="783" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A783" s="2" t="s">
         <v>1112</v>
       </c>
@@ -20834,7 +20833,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="784" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A784" s="2" t="s">
         <v>1114</v>
       </c>
@@ -20854,7 +20853,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="785" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A785" s="2" t="s">
         <v>747</v>
       </c>
@@ -20874,7 +20873,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="786" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A786" s="2" t="s">
         <v>1117</v>
       </c>
@@ -20894,7 +20893,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="787" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A787" s="2" t="s">
         <v>1119</v>
       </c>
@@ -20914,7 +20913,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="788" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A788" s="2" t="s">
         <v>1121</v>
       </c>
@@ -20934,7 +20933,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="789" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A789" s="2" t="s">
         <v>1123</v>
       </c>
@@ -20954,7 +20953,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="790" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A790" s="2" t="s">
         <v>1105</v>
       </c>
@@ -20974,7 +20973,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="791" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A791" s="2" t="s">
         <v>1127</v>
       </c>
@@ -20994,7 +20993,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="792" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A792" s="2" t="s">
         <v>1129</v>
       </c>
@@ -21014,7 +21013,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="793" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A793" s="2" t="s">
         <v>1131</v>
       </c>
@@ -21034,7 +21033,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="794" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A794" s="2" t="s">
         <v>750</v>
       </c>
@@ -21054,7 +21053,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="795" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A795" s="2" t="s">
         <v>1134</v>
       </c>
@@ -21074,7 +21073,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="796" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A796" s="2" t="s">
         <v>1136</v>
       </c>
@@ -21094,7 +21093,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="797" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A797" s="2" t="s">
         <v>1139</v>
       </c>
@@ -21114,7 +21113,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="798" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A798" s="2" t="s">
         <v>1141</v>
       </c>
@@ -21134,7 +21133,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="799" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A799" s="2" t="s">
         <v>1143</v>
       </c>
@@ -21154,7 +21153,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="800" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A800" s="2" t="s">
         <v>1145</v>
       </c>
@@ -21174,7 +21173,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="801" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A801" s="2" t="s">
         <v>1147</v>
       </c>
@@ -21194,7 +21193,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="802" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A802" s="2" t="s">
         <v>732</v>
       </c>
@@ -21214,7 +21213,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="803" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A803" s="2" t="s">
         <v>1150</v>
       </c>
@@ -21234,7 +21233,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="804" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A804" s="2" t="s">
         <v>1114</v>
       </c>
@@ -21254,7 +21253,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="805" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A805" s="2" t="s">
         <v>1153</v>
       </c>
@@ -21274,7 +21273,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="806" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A806" s="2" t="s">
         <v>1155</v>
       </c>
@@ -21294,7 +21293,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="807" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A807" s="2" t="s">
         <v>1157</v>
       </c>
@@ -21314,7 +21313,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="808" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A808" s="2" t="s">
         <v>1159</v>
       </c>
@@ -21334,7 +21333,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="809" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A809" s="2" t="s">
         <v>1161</v>
       </c>
@@ -21354,7 +21353,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="810" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A810" s="2" t="s">
         <v>1163</v>
       </c>
@@ -21374,7 +21373,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="811" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A811" s="2" t="s">
         <v>1165</v>
       </c>
@@ -21394,7 +21393,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="812" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A812" s="2" t="s">
         <v>1167</v>
       </c>
@@ -21414,7 +21413,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="813" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A813" s="2" t="s">
         <v>1169</v>
       </c>
@@ -21434,7 +21433,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="814" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A814" s="2" t="s">
         <v>1171</v>
       </c>
@@ -21454,7 +21453,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="815" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A815" s="2" t="s">
         <v>18</v>
       </c>
@@ -21474,7 +21473,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="816" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A816" s="2" t="s">
         <v>1175</v>
       </c>
@@ -21494,7 +21493,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="817" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A817" s="2" t="s">
         <v>1177</v>
       </c>
@@ -21514,7 +21513,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="818" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A818" s="2" t="s">
         <v>750</v>
       </c>
@@ -21534,7 +21533,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="819" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A819" s="2" t="s">
         <v>1180</v>
       </c>
@@ -21554,7 +21553,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="820" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A820" s="2" t="s">
         <v>750</v>
       </c>
@@ -21574,7 +21573,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="821" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A821" s="2" t="s">
         <v>1183</v>
       </c>
@@ -21594,7 +21593,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="822" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A822" s="2" t="s">
         <v>1185</v>
       </c>
@@ -21614,7 +21613,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="823" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A823" s="2" t="s">
         <v>1175</v>
       </c>
@@ -21634,7 +21633,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="824" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A824" s="2" t="s">
         <v>750</v>
       </c>
@@ -21654,7 +21653,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="825" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A825" s="2" t="s">
         <v>1189</v>
       </c>
@@ -21674,7 +21673,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="826" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A826" s="2" t="s">
         <v>1191</v>
       </c>
@@ -21694,7 +21693,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="827" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A827" s="2" t="s">
         <v>1193</v>
       </c>
@@ -21714,7 +21713,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="828" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A828" s="2" t="s">
         <v>1171</v>
       </c>
@@ -21734,7 +21733,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="829" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A829" s="2" t="s">
         <v>1196</v>
       </c>
@@ -21754,7 +21753,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="830" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A830" s="2" t="s">
         <v>1193</v>
       </c>
@@ -21774,7 +21773,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="831" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A831" s="2" t="s">
         <v>1199</v>
       </c>
@@ -21794,7 +21793,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="832" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A832" s="2" t="s">
         <v>1097</v>
       </c>
@@ -21814,7 +21813,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="833" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A833" s="2" t="s">
         <v>1202</v>
       </c>
@@ -21834,7 +21833,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="834" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A834" s="2" t="s">
         <v>1204</v>
       </c>
@@ -21854,7 +21853,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="835" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A835" s="2" t="s">
         <v>1206</v>
       </c>
@@ -21874,7 +21873,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="836" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A836" s="2" t="s">
         <v>1208</v>
       </c>
@@ -21894,7 +21893,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="837" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A837" s="2" t="s">
         <v>1210</v>
       </c>
@@ -21914,7 +21913,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="838" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A838" s="2" t="s">
         <v>1212</v>
       </c>
@@ -21934,7 +21933,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="839" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A839" s="2" t="s">
         <v>1214</v>
       </c>
@@ -21954,7 +21953,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="840" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A840" s="2" t="s">
         <v>1216</v>
       </c>
@@ -21974,7 +21973,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="841" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A841" s="2" t="s">
         <v>615</v>
       </c>
@@ -21994,7 +21993,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="842" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A842" s="2" t="s">
         <v>615</v>
       </c>
@@ -22014,7 +22013,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="843" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A843" s="2" t="s">
         <v>1220</v>
       </c>
@@ -22034,7 +22033,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="844" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A844" s="2" t="s">
         <v>796</v>
       </c>
@@ -22054,7 +22053,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="845" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A845" s="2" t="s">
         <v>1223</v>
       </c>
@@ -22074,7 +22073,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="846" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A846" s="2" t="s">
         <v>1225</v>
       </c>
@@ -22094,7 +22093,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="847" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A847" s="2" t="s">
         <v>1227</v>
       </c>
@@ -22114,7 +22113,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="848" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A848" s="2" t="s">
         <v>1229</v>
       </c>
@@ -22134,7 +22133,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="849" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A849" s="2" t="s">
         <v>745</v>
       </c>
@@ -22154,7 +22153,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="850" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A850" s="2" t="s">
         <v>1232</v>
       </c>
@@ -22174,7 +22173,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="851" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A851" s="2" t="s">
         <v>1234</v>
       </c>
@@ -22194,7 +22193,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="852" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A852" s="2" t="s">
         <v>706</v>
       </c>
@@ -22214,7 +22213,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="853" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A853" s="2" t="s">
         <v>1236</v>
       </c>
@@ -22234,7 +22233,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="854" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A854" s="2" t="s">
         <v>18</v>
       </c>
@@ -22254,7 +22253,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="855" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A855" s="2" t="s">
         <v>1239</v>
       </c>
@@ -22274,7 +22273,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="856" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A856" s="2" t="s">
         <v>1241</v>
       </c>
@@ -22294,7 +22293,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="857" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A857" t="s">
         <v>986</v>
       </c>
@@ -22314,7 +22313,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="858" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A858" t="s">
         <v>1248</v>
       </c>
@@ -22334,7 +22333,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="859" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A859" t="s">
         <v>693</v>
       </c>
@@ -22354,7 +22353,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="860" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A860" t="s">
         <v>1256</v>
       </c>
@@ -22374,7 +22373,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="861" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A861" t="s">
         <v>1261</v>
       </c>
@@ -22394,7 +22393,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="862" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A862" t="s">
         <v>673</v>
       </c>
@@ -22414,7 +22413,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="863" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A863" t="s">
         <v>18</v>
       </c>
@@ -22434,7 +22433,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="864" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A864" t="s">
         <v>1274</v>
       </c>
@@ -22454,7 +22453,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="865" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A865" t="s">
         <v>18</v>
       </c>
@@ -22474,7 +22473,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="866" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A866" t="s">
         <v>18</v>
       </c>
@@ -22494,7 +22493,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="867" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A867" t="s">
         <v>1285</v>
       </c>
@@ -22514,7 +22513,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="868" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A868" t="s">
         <v>1289</v>
       </c>
@@ -22534,7 +22533,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="869" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A869" t="s">
         <v>1293</v>
       </c>
@@ -22554,7 +22553,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="870" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A870" t="s">
         <v>1296</v>
       </c>
@@ -22574,7 +22573,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="871" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A871" t="s">
         <v>1299</v>
       </c>
@@ -22594,7 +22593,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="872" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A872" t="s">
         <v>1301</v>
       </c>
@@ -22614,7 +22613,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="873" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A873" t="s">
         <v>1303</v>
       </c>
@@ -22634,7 +22633,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="874" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A874" t="s">
         <v>1078</v>
       </c>
@@ -22654,7 +22653,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="875" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A875" t="s">
         <v>1306</v>
       </c>
@@ -22674,7 +22673,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="876" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A876" t="s">
         <v>1308</v>
       </c>
@@ -22694,7 +22693,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="877" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A877" t="s">
         <v>1310</v>
       </c>
@@ -22714,7 +22713,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="878" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A878" t="s">
         <v>1078</v>
       </c>
@@ -22734,7 +22733,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="879" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A879" t="s">
         <v>1313</v>
       </c>
@@ -22754,7 +22753,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="880" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A880" t="s">
         <v>1315</v>
       </c>
@@ -22774,7 +22773,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="881" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A881" t="s">
         <v>1317</v>
       </c>
@@ -22794,7 +22793,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="882" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A882" t="s">
         <v>1319</v>
       </c>
@@ -22814,7 +22813,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="883" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A883" t="s">
         <v>1322</v>
       </c>
@@ -22834,7 +22833,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="884" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A884" t="s">
         <v>1325</v>
       </c>
@@ -22854,7 +22853,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="885" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A885" t="s">
         <v>1329</v>
       </c>
@@ -22874,7 +22873,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="886" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A886" t="s">
         <v>1331</v>
       </c>
@@ -22894,7 +22893,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="887" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A887" t="s">
         <v>615</v>
       </c>
@@ -22914,7 +22913,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="888" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A888" t="s">
         <v>750</v>
       </c>
@@ -22934,7 +22933,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="889" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A889" t="s">
         <v>1340</v>
       </c>
@@ -22954,7 +22953,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="890" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A890" t="s">
         <v>1343</v>
       </c>
@@ -22974,7 +22973,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="891" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A891" t="s">
         <v>18</v>
       </c>
@@ -22994,7 +22993,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="892" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A892" t="s">
         <v>18</v>
       </c>
@@ -23014,7 +23013,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="893" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A893" t="s">
         <v>18</v>
       </c>
@@ -23034,7 +23033,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="894" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A894" t="s">
         <v>1352</v>
       </c>
@@ -23054,7 +23053,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="895" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A895" t="s">
         <v>1354</v>
       </c>
@@ -23074,7 +23073,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="896" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A896" t="s">
         <v>1356</v>
       </c>
@@ -23094,7 +23093,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="897" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A897" t="s">
         <v>1358</v>
       </c>
@@ -23114,7 +23113,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="898" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A898" t="s">
         <v>1360</v>
       </c>
@@ -23134,7 +23133,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="899" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A899" t="s">
         <v>673</v>
       </c>
@@ -23154,7 +23153,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="900" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A900" t="s">
         <v>1364</v>
       </c>
@@ -23174,7 +23173,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="901" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A901" t="s">
         <v>1367</v>
       </c>
@@ -23194,7 +23193,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="902" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A902" t="s">
         <v>1369</v>
       </c>
@@ -23214,7 +23213,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="903" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A903" t="s">
         <v>1372</v>
       </c>
@@ -23234,7 +23233,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="904" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A904" t="s">
         <v>1375</v>
       </c>
@@ -23254,7 +23253,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="905" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A905" t="s">
         <v>62</v>
       </c>
@@ -23274,7 +23273,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="906" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A906" t="s">
         <v>1380</v>
       </c>
@@ -23294,7 +23293,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="907" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A907" t="s">
         <v>1119</v>
       </c>
@@ -23314,7 +23313,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="908" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A908" t="s">
         <v>1383</v>
       </c>
@@ -23334,7 +23333,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="909" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A909" t="s">
         <v>1385</v>
       </c>
@@ -23354,7 +23353,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="910" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A910" t="s">
         <v>1387</v>
       </c>
@@ -23374,7 +23373,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="911" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A911" t="s">
         <v>755</v>
       </c>
@@ -23394,7 +23393,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="912" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A912" t="s">
         <v>1150</v>
       </c>
@@ -23414,7 +23413,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="913" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A913" t="s">
         <v>1393</v>
       </c>
@@ -23434,7 +23433,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="914" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A914" t="s">
         <v>615</v>
       </c>
@@ -23454,7 +23453,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="915" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A915" t="s">
         <v>798</v>
       </c>
@@ -23474,7 +23473,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="916" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A916" t="s">
         <v>1400</v>
       </c>
@@ -23494,7 +23493,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="917" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A917" t="s">
         <v>18</v>
       </c>
@@ -23514,7 +23513,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="918" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A918" t="s">
         <v>1404</v>
       </c>
@@ -23534,7 +23533,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="919" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A919" t="s">
         <v>18</v>
       </c>
@@ -23554,7 +23553,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="920" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A920" t="s">
         <v>1407</v>
       </c>
@@ -23574,7 +23573,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="921" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A921" t="s">
         <v>18</v>
       </c>
@@ -23594,7 +23593,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="922" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A922" t="s">
         <v>18</v>
       </c>
@@ -23614,7 +23613,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="923" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A923" t="s">
         <v>1411</v>
       </c>
@@ -23634,7 +23633,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="924" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A924" t="s">
         <v>18</v>
       </c>
@@ -23654,7 +23653,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="925" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A925" t="s">
         <v>18</v>
       </c>
@@ -23674,7 +23673,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="926" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A926" t="s">
         <v>18</v>
       </c>
@@ -23694,7 +23693,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="927" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A927" t="s">
         <v>615</v>
       </c>
@@ -23714,7 +23713,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="928" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A928" t="s">
         <v>18</v>
       </c>
@@ -23734,7 +23733,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="929" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A929" t="s">
         <v>18</v>
       </c>
@@ -23754,7 +23753,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="930" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A930" t="s">
         <v>615</v>
       </c>
@@ -23774,7 +23773,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="931" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A931" t="s">
         <v>1420</v>
       </c>
@@ -23794,7 +23793,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="932" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A932" t="s">
         <v>1422</v>
       </c>
@@ -23814,7 +23813,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="933" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A933" t="s">
         <v>1424</v>
       </c>
@@ -23834,7 +23833,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="934" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A934" t="s">
         <v>781</v>
       </c>
@@ -23854,7 +23853,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="935" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A935" t="s">
         <v>745</v>
       </c>
@@ -23874,7 +23873,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="936" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A936" t="s">
         <v>207</v>
       </c>
@@ -23894,7 +23893,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="937" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A937" t="s">
         <v>18</v>
       </c>
@@ -23914,7 +23913,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="938" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A938" t="s">
         <v>1185</v>
       </c>
@@ -23934,7 +23933,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="939" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A939" t="s">
         <v>1431</v>
       </c>
@@ -23954,7 +23953,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="940" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A940" t="s">
         <v>1433</v>
       </c>
@@ -23974,7 +23973,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="941" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A941" t="s">
         <v>18</v>
       </c>
@@ -23994,7 +23993,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="942" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A942" t="s">
         <v>1436</v>
       </c>
@@ -24014,7 +24013,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="943" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A943" t="s">
         <v>615</v>
       </c>
@@ -24034,7 +24033,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="944" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A944" t="s">
         <v>1439</v>
       </c>
@@ -24054,7 +24053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="945" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A945" t="s">
         <v>1441</v>
       </c>
@@ -24074,7 +24073,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="946" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A946" t="s">
         <v>1443</v>
       </c>
@@ -24094,7 +24093,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="947" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A947" t="s">
         <v>644</v>
       </c>
@@ -24114,7 +24113,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="948" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A948" t="s">
         <v>18</v>
       </c>
@@ -24134,7 +24133,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="949" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A949" t="s">
         <v>58</v>
       </c>
@@ -24154,7 +24153,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="950" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A950" t="s">
         <v>18</v>
       </c>
@@ -24174,7 +24173,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="951" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A951" t="s">
         <v>1449</v>
       </c>
@@ -24194,7 +24193,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="952" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A952" t="s">
         <v>148</v>
       </c>
@@ -24214,7 +24213,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="953" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A953" t="s">
         <v>1452</v>
       </c>
@@ -24234,7 +24233,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="954" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A954" t="s">
         <v>644</v>
       </c>
@@ -24254,7 +24253,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="955" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A955" t="s">
         <v>1455</v>
       </c>
@@ -24274,7 +24273,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="956" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A956" t="s">
         <v>18</v>
       </c>
@@ -24294,7 +24293,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="957" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A957" t="s">
         <v>18</v>
       </c>
@@ -24314,7 +24313,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="958" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A958" t="s">
         <v>1459</v>
       </c>
@@ -24334,7 +24333,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="959" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A959" t="s">
         <v>1461</v>
       </c>
@@ -24354,7 +24353,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="960" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A960" t="s">
         <v>1463</v>
       </c>
@@ -24374,7 +24373,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="961" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A961" t="s">
         <v>982</v>
       </c>
@@ -24394,7 +24393,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="962" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A962" t="s">
         <v>1466</v>
       </c>
@@ -24414,7 +24413,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="963" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A963" t="s">
         <v>131</v>
       </c>
@@ -24434,7 +24433,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="964" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A964" t="s">
         <v>1469</v>
       </c>
@@ -24454,7 +24453,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="965" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A965" t="s">
         <v>18</v>
       </c>
@@ -24474,7 +24473,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="966" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A966" t="s">
         <v>18</v>
       </c>
@@ -24494,7 +24493,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="967" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A967" t="s">
         <v>18</v>
       </c>
@@ -24514,7 +24513,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="968" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A968" t="s">
         <v>747</v>
       </c>
@@ -24534,7 +24533,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="969" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A969" t="s">
         <v>1475</v>
       </c>
@@ -24554,7 +24553,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="970" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A970" t="s">
         <v>207</v>
       </c>
@@ -24574,7 +24573,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="971" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A971" t="s">
         <v>1478</v>
       </c>
@@ -24594,7 +24593,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="972" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A972" t="s">
         <v>1480</v>
       </c>
@@ -24614,7 +24613,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="973" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A973" t="s">
         <v>1482</v>
       </c>
@@ -24634,7 +24633,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="974" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A974" t="s">
         <v>1484</v>
       </c>
@@ -24654,7 +24653,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="975" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A975" t="s">
         <v>1486</v>
       </c>
@@ -24674,7 +24673,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="976" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A976" t="s">
         <v>1488</v>
       </c>
@@ -24694,7 +24693,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="977" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A977" t="s">
         <v>814</v>
       </c>
@@ -24714,7 +24713,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="978" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A978" t="s">
         <v>1492</v>
       </c>
@@ -24734,7 +24733,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="979" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A979" t="s">
         <v>688</v>
       </c>
@@ -24754,7 +24753,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="980" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A980" t="s">
         <v>1340</v>
       </c>
@@ -24774,7 +24773,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="981" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A981" t="s">
         <v>1497</v>
       </c>
@@ -24794,7 +24793,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="982" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A982" t="s">
         <v>615</v>
       </c>
@@ -24814,7 +24813,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="983" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A983" t="s">
         <v>1501</v>
       </c>
@@ -24834,7 +24833,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="984" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A984" t="s">
         <v>1504</v>
       </c>
@@ -24854,7 +24853,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="985" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A985" t="s">
         <v>18</v>
       </c>
@@ -24874,7 +24873,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="986" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A986" t="s">
         <v>1507</v>
       </c>
@@ -24894,7 +24893,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="987" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A987" t="s">
         <v>1510</v>
       </c>
@@ -24914,7 +24913,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="988" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A988" t="s">
         <v>1512</v>
       </c>
@@ -24934,7 +24933,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="989" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A989" t="s">
         <v>615</v>
       </c>
@@ -24954,7 +24953,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="990" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A990" t="s">
         <v>1516</v>
       </c>
@@ -24974,7 +24973,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="991" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A991" t="s">
         <v>1518</v>
       </c>
@@ -24994,7 +24993,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="992" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A992" t="s">
         <v>1521</v>
       </c>
@@ -25017,16 +25016,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B12BE1CD-1ACB-498E-9291-02ADAC97409E}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>